--- a/data-manipulation/northwest-samples.xlsx
+++ b/data-manipulation/northwest-samples.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="132">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -98,340 +98,325 @@
     <t>10</t>
   </si>
   <si>
-    <t>850</t>
+    <t>3300</t>
+  </si>
+  <si>
+    <t>2636</t>
+  </si>
+  <si>
+    <t>2820</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>2744</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Miscellaneou</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Debris Burn</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>&lt;Null&gt;</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>8.07</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.0299999999999998</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>NORTHEAST</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2375</t>
+  </si>
+  <si>
+    <t>2734</t>
+  </si>
+  <si>
+    <t>3385</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3448</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>3206</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>2360</t>
+  </si>
+  <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>Railroad</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>2383</t>
   </si>
   <si>
     <t>4000</t>
   </si>
   <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>Arson</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1686</t>
+  </si>
+  <si>
+    <t>1467</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>2146</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>1687</t>
+  </si>
+  <si>
+    <t>2361</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>2710</t>
+  </si>
+  <si>
+    <t>2880</t>
+  </si>
+  <si>
+    <t>3213</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>2192</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
     <t>2400</t>
   </si>
   <si>
-    <t>1280</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>2100</t>
+    <t>2324</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>2352</t>
+  </si>
+  <si>
+    <t>2169</t>
   </si>
   <si>
     <t>2350</t>
   </si>
   <si>
-    <t>1880</t>
-  </si>
-  <si>
-    <t>Undetermined</t>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>2390</t>
+  </si>
+  <si>
+    <t>2941</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>3060</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2.2000000000000002</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>2775</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>2420</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>3700</t>
   </si>
   <si>
     <t>Logging</t>
   </si>
   <si>
-    <t>Recreation</t>
-  </si>
-  <si>
-    <t>Debris Burn</t>
-  </si>
-  <si>
-    <t>Miscellaneou</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>&lt;Null&gt;</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>NORTHEAST</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>3448</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>2445</t>
-  </si>
-  <si>
-    <t>2150</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>8.8000000000000007</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>2752</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>3425</t>
-  </si>
-  <si>
-    <t>1188</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>1625</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>2680</t>
-  </si>
-  <si>
-    <t>2168</t>
-  </si>
-  <si>
-    <t>3769</t>
-  </si>
-  <si>
-    <t>1468</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>2192</t>
-  </si>
-  <si>
-    <t>Smoker</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>3.39</t>
-  </si>
-  <si>
-    <t>3061</t>
-  </si>
-  <si>
-    <t>1545</t>
-  </si>
-  <si>
-    <t>3852</t>
-  </si>
-  <si>
-    <t>2266</t>
-  </si>
-  <si>
-    <t>1828</t>
-  </si>
-  <si>
-    <t>1450</t>
-  </si>
-  <si>
-    <t>Railroad</t>
-  </si>
-  <si>
-    <t>2374</t>
-  </si>
-  <si>
-    <t>1467</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>2385</t>
-  </si>
-  <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>3800</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>1940</t>
-  </si>
-  <si>
-    <t>3050</t>
-  </si>
-  <si>
-    <t>3300</t>
-  </si>
-  <si>
-    <t>1640</t>
-  </si>
-  <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>Under Invest</t>
-  </si>
-  <si>
-    <t>8.07</t>
-  </si>
-  <si>
-    <t>4.4000000000000004</t>
-  </si>
-  <si>
-    <t>2.2999999999999998</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>2488</t>
-  </si>
-  <si>
-    <t>2240</t>
-  </si>
-  <si>
-    <t>1817</t>
-  </si>
-  <si>
-    <t>3085</t>
-  </si>
-  <si>
-    <t>2600</t>
-  </si>
-  <si>
-    <t>1252</t>
-  </si>
-  <si>
-    <t>2352</t>
-  </si>
-  <si>
-    <t>1528</t>
-  </si>
-  <si>
-    <t>1865</t>
-  </si>
-  <si>
-    <t>1.1000000000000001</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>2270</t>
-  </si>
-  <si>
-    <t>1760</t>
-  </si>
-  <si>
-    <t>1521</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>36.25</t>
-  </si>
-  <si>
-    <t>3417</t>
-  </si>
-  <si>
-    <t>1458</t>
-  </si>
-  <si>
-    <t>1555</t>
-  </si>
-  <si>
-    <t>2750</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>4765</t>
-  </si>
-  <si>
-    <t>2355</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>15.3</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -535,25 +520,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>11194.0</v>
+        <v>8403.0</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="D2" t="n">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>20.0</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="s">
         <v>39</v>
@@ -562,22 +547,22 @@
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.0181</v>
+        <v>48.37271</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.60362</v>
+        <v>-118.9399</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>373692.29999999946</v>
+        <v>430108.50000000047</v>
       </c>
       <c r="P2" t="n">
-        <v>111990.99999999967</v>
+        <v>150998.09999999977</v>
       </c>
     </row>
     <row r="3">
@@ -585,25 +570,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>11471.0</v>
+        <v>6467.0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.0</v>
+        <v>28.0</v>
       </c>
       <c r="E3" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>32.0</v>
+        <v>1.21</v>
       </c>
       <c r="I3" t="s">
         <v>40</v>
@@ -612,22 +597,22 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.35987</v>
+        <v>48.69953</v>
       </c>
       <c r="L3" t="n">
-        <v>-118.00629</v>
+        <v>-119.35492</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>509465.3499999994</v>
+        <v>394831.7999999994</v>
       </c>
       <c r="P3" t="n">
-        <v>149585.7000000001</v>
+        <v>186948.3000000003</v>
       </c>
     </row>
     <row r="4">
@@ -635,25 +620,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>2356.0</v>
+        <v>3626.0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.0</v>
+        <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.0</v>
+        <v>33.0</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>6.1</v>
+        <v>24.7</v>
       </c>
       <c r="I4" t="s">
         <v>41</v>
@@ -662,22 +647,22 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.58188</v>
+        <v>48.22896</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.63694</v>
+        <v>-120.09269</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>540860.1000000003</v>
+        <v>332121.3499999996</v>
       </c>
       <c r="P4" t="n">
-        <v>64006.7999999998</v>
+        <v>135185.6000000001</v>
       </c>
     </row>
     <row r="5">
@@ -685,49 +670,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>15917.0</v>
+        <v>9116.0</v>
       </c>
       <c r="C5" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="D5" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.0</v>
+        <v>16.0</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>6.8</v>
+        <v>1.22</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.32827</v>
+        <v>47.74625</v>
       </c>
       <c r="L5" t="n">
-        <v>-119.66543</v>
+        <v>-117.51561</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="n">
-        <v>368438.44999999995</v>
+        <v>551173.1500000004</v>
       </c>
       <c r="P5" t="n">
-        <v>146109.70000000036</v>
+        <v>82087.50000000038</v>
       </c>
     </row>
     <row r="6">
@@ -735,49 +720,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>10088.0</v>
+        <v>4083.0</v>
       </c>
       <c r="C6" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="E6" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.29913</v>
+        <v>48.8087</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.70414</v>
+        <v>-119.30624</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" t="n">
-        <v>365148.1000000004</v>
+        <v>398969.5999999998</v>
       </c>
       <c r="P6" t="n">
-        <v>142904.29999999978</v>
+        <v>198957.0000000002</v>
       </c>
     </row>
     <row r="7">
@@ -785,49 +770,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>15191.0</v>
+        <v>9479.0</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="D7" t="n">
-        <v>39.0</v>
+        <v>29.0</v>
       </c>
       <c r="E7" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>5.0</v>
+        <v>8.07</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.52388</v>
+        <v>48.70328</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.84359</v>
+        <v>-119.212</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>523294.8499999995</v>
+        <v>406979.9999999997</v>
       </c>
       <c r="P7" t="n">
-        <v>167626.7999999998</v>
+        <v>187360.79999999993</v>
       </c>
     </row>
     <row r="8">
@@ -835,49 +820,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>13054.0</v>
+        <v>2459.0</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0</v>
+        <v>27.0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.0</v>
+        <v>31.0</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>15.5</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.60705</v>
+        <v>48.65972</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.24649</v>
+        <v>-119.43679</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>574048.3500000004</v>
+        <v>387872.8499999998</v>
       </c>
       <c r="P8" t="n">
-        <v>66775.5000000001</v>
+        <v>182569.2</v>
       </c>
     </row>
     <row r="9">
@@ -885,49 +870,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>4094.0</v>
+        <v>4565.0</v>
       </c>
       <c r="C9" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0</v>
+        <v>22.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>35.0</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.2174</v>
+        <v>48.31776</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.65295</v>
+        <v>-120.05477</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>539499.2499999997</v>
+        <v>335344.5499999996</v>
       </c>
       <c r="P9" t="n">
-        <v>133913.99999999977</v>
+        <v>144953.59999999998</v>
       </c>
     </row>
     <row r="10">
@@ -935,49 +920,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>13682.0</v>
+        <v>13057.0</v>
       </c>
       <c r="C10" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="D10" t="n">
         <v>40.0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.0</v>
+        <v>22.0</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>17.0</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.71395</v>
+        <v>48.25725</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.70888</v>
+        <v>-117.74536</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>534745.2000000005</v>
+        <v>531644.3999999996</v>
       </c>
       <c r="P10" t="n">
-        <v>78534.49999999967</v>
+        <v>138297.4999999999</v>
       </c>
     </row>
     <row r="11">
@@ -985,49 +970,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>9713.0</v>
+        <v>5356.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0</v>
+        <v>39.0</v>
       </c>
       <c r="D11" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="E11" t="n">
-        <v>33.0</v>
+        <v>2.0</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
-        <v>97.0</v>
+        <v>2.03</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.79043</v>
+        <v>48.91803</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.93076</v>
+        <v>-118.73692</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>515885.39999999944</v>
+        <v>447361.80000000016</v>
       </c>
       <c r="P11" t="n">
-        <v>86947.30000000008</v>
+        <v>210983.3000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1096,49 +1081,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>13167.0</v>
+        <v>10697.0</v>
       </c>
       <c r="C2" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="D2" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.0</v>
+        <v>33.0</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.27222</v>
+        <v>48.57367</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.51938</v>
+        <v>-118.15974</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>550852.7000000002</v>
+        <v>496422.10000000003</v>
       </c>
       <c r="P2" t="n">
-        <v>139944.1999999997</v>
+        <v>173103.69999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1146,49 +1131,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>5204.0</v>
+        <v>8955.0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="D3" t="n">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="E3" t="n">
-        <v>17.0</v>
+        <v>27.0</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4</v>
+        <v>5.0</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.52668</v>
+        <v>48.9433</v>
       </c>
       <c r="L3" t="n">
-        <v>-118.17604</v>
+        <v>-119.41077</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>495036.6</v>
+        <v>390084.55000000005</v>
       </c>
       <c r="P3" t="n">
-        <v>167934.79999999987</v>
+        <v>213763.0000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1196,49 +1181,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>4141.0</v>
+        <v>13338.0</v>
       </c>
       <c r="C4" t="n">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
       <c r="D4" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="H4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.49202</v>
+        <v>48.33237</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.46842</v>
+        <v>-117.39434</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>555184.3000000004</v>
+        <v>561481.1</v>
       </c>
       <c r="P4" t="n">
-        <v>54122.199999999626</v>
+        <v>146560.69999999972</v>
       </c>
     </row>
     <row r="5">
@@ -1246,49 +1231,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>10920.0</v>
+        <v>18977.0</v>
       </c>
       <c r="C5" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.0</v>
+        <v>36.0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>14.0</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.36727</v>
+        <v>47.77925</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.07514</v>
+        <v>-118.32092</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="n">
-        <v>588613.0999999996</v>
+        <v>482721.79999999993</v>
       </c>
       <c r="P5" t="n">
-        <v>40399.69999999976</v>
+        <v>85717.49999999974</v>
       </c>
     </row>
     <row r="6">
@@ -1296,49 +1281,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>17856.0</v>
+        <v>4722.0</v>
       </c>
       <c r="C6" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="D6" t="n">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="E6" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>15.3</v>
+        <v>2.0</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.59418</v>
+        <v>48.97227</v>
       </c>
       <c r="L6" t="n">
-        <v>-118.10205</v>
+        <v>-119.40514</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" t="n">
-        <v>501325.74999999953</v>
+        <v>390563.09999999974</v>
       </c>
       <c r="P6" t="n">
-        <v>175359.80000000016</v>
+        <v>216949.7000000002</v>
       </c>
     </row>
     <row r="7">
@@ -1346,49 +1331,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>11247.0</v>
+        <v>11430.0</v>
       </c>
       <c r="C7" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E7" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>94.7</v>
+        <v>1.5</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.54554</v>
+        <v>47.88378</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.7284</v>
+        <v>-117.43023</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>533086.0000000006</v>
+        <v>558430.4500000004</v>
       </c>
       <c r="P7" t="n">
-        <v>60009.400000000285</v>
+        <v>97215.80000000018</v>
       </c>
     </row>
     <row r="8">
@@ -1396,49 +1381,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>16578.0</v>
+        <v>5678.0</v>
       </c>
       <c r="C8" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E8" t="n">
         <v>36.0</v>
       </c>
-      <c r="D8" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19.0</v>
-      </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>9.0</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.60337</v>
+        <v>48.30957</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.82379</v>
+        <v>-118.09886</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>524977.8499999997</v>
+        <v>501596.89999999985</v>
       </c>
       <c r="P8" t="n">
-        <v>176370.6999999998</v>
+        <v>144052.7000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1446,49 +1431,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>15588.0</v>
+        <v>4620.0</v>
       </c>
       <c r="C9" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0</v>
+        <v>43.0</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0</v>
+        <v>11.0</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H9" t="n">
-        <v>1.02</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.48506</v>
+        <v>47.94142</v>
       </c>
       <c r="L9" t="n">
-        <v>-120.20629</v>
+        <v>-117.33981</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>322465.3500000004</v>
+        <v>566116.15</v>
       </c>
       <c r="P9" t="n">
-        <v>163356.5999999997</v>
+        <v>103556.20000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1496,49 +1481,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>13148.0</v>
+        <v>5078.0</v>
       </c>
       <c r="C10" t="n">
         <v>27.0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.0</v>
+        <v>36.0</v>
       </c>
       <c r="E10" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>8.0</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.81847</v>
+        <v>47.85892</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.26417</v>
+        <v>-118.33686</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>572545.5500000006</v>
+        <v>481366.89999999985</v>
       </c>
       <c r="P10" t="n">
-        <v>90031.69999999976</v>
+        <v>94481.19999999975</v>
       </c>
     </row>
     <row r="11">
@@ -1546,49 +1531,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>5685.0</v>
+        <v>591.0</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0</v>
+        <v>24.0</v>
       </c>
       <c r="E11" t="n">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.14112</v>
+        <v>48.50907</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.64713</v>
+        <v>-119.76364</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>539993.9499999996</v>
+        <v>360090.6000000004</v>
       </c>
       <c r="P11" t="n">
-        <v>125523.20000000008</v>
+        <v>165997.70000000013</v>
       </c>
     </row>
   </sheetData>
@@ -1657,49 +1642,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>15697.0</v>
+        <v>365.0</v>
       </c>
       <c r="C2" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="D2" t="n">
-        <v>40.0</v>
+        <v>28.0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>4.04</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.79179</v>
+        <v>48.73235</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.79686</v>
+        <v>-119.33849</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>527266.9000000004</v>
+        <v>396228.3500000006</v>
       </c>
       <c r="P2" t="n">
-        <v>197096.89999999988</v>
+        <v>190558.49999999965</v>
       </c>
     </row>
     <row r="3">
@@ -1707,49 +1692,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>10502.0</v>
+        <v>9970.0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.0</v>
+        <v>23.0</v>
       </c>
       <c r="D3" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E3" t="n">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.3754</v>
+        <v>47.46573</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.80592</v>
+        <v>-117.63689</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>526496.7999999999</v>
+        <v>540864.3500000006</v>
       </c>
       <c r="P3" t="n">
-        <v>151293.99999999988</v>
+        <v>51230.30000000007</v>
       </c>
     </row>
     <row r="4">
@@ -1757,49 +1742,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>14741.0</v>
+        <v>14231.0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.0</v>
+        <v>28.0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>1.3</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.41153</v>
+        <v>48.99019</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.84327</v>
+        <v>-119.35049</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>523322.04999999964</v>
+        <v>395208.35000000056</v>
       </c>
       <c r="P4" t="n">
-        <v>155268.2999999999</v>
+        <v>218920.89999999982</v>
       </c>
     </row>
     <row r="5">
@@ -1807,49 +1792,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>12756.0</v>
+        <v>4241.0</v>
       </c>
       <c r="C5" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="E5" t="n">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5</v>
+        <v>4.84</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.15786</v>
+        <v>48.69607</v>
       </c>
       <c r="L5" t="n">
-        <v>-119.97894</v>
+        <v>-119.21747</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="n">
-        <v>341790.1000000005</v>
+        <v>406515.0499999995</v>
       </c>
       <c r="P5" t="n">
-        <v>127364.59999999993</v>
+        <v>186567.69999999987</v>
       </c>
     </row>
     <row r="6">
@@ -1857,49 +1842,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>15299.0</v>
+        <v>9611.0</v>
       </c>
       <c r="C6" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="D6" t="n">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="E6" t="n">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>8.8</v>
+        <v>39.4</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.60525</v>
+        <v>48.92043</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.99025</v>
+        <v>-119.21691</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" t="n">
-        <v>510828.7499999997</v>
+        <v>406562.65000000014</v>
       </c>
       <c r="P6" t="n">
-        <v>176577.4999999998</v>
+        <v>211247.30000000034</v>
       </c>
     </row>
     <row r="7">
@@ -1907,49 +1892,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>3457.0</v>
+        <v>10502.0</v>
       </c>
       <c r="C7" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>12.26</v>
+        <v>13.0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.90512</v>
+        <v>48.3754</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.26878</v>
+        <v>-117.80592</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>572153.6999999995</v>
+        <v>526496.7999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>99563.19999999962</v>
+        <v>151293.99999999988</v>
       </c>
     </row>
     <row r="8">
@@ -1957,49 +1942,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>18707.0</v>
+        <v>283.0</v>
       </c>
       <c r="C8" t="n">
-        <v>39.0</v>
+        <v>29.0</v>
       </c>
       <c r="D8" t="n">
         <v>36.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>6.0</v>
+        <v>1.4</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.90324</v>
+        <v>48.07696</v>
       </c>
       <c r="L8" t="n">
-        <v>-118.19756</v>
+        <v>-118.21228</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>493207.4000000004</v>
+        <v>491956.19999999943</v>
       </c>
       <c r="P8" t="n">
-        <v>209356.39999999964</v>
+        <v>118465.59999999996</v>
       </c>
     </row>
     <row r="9">
@@ -2007,49 +1992,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>2753.0</v>
+        <v>3696.0</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0</v>
+        <v>25.0</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.12993</v>
+        <v>48.59589</v>
       </c>
       <c r="L9" t="n">
-        <v>-120.08763</v>
+        <v>-119.50797</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>332551.4499999996</v>
+        <v>381822.55</v>
       </c>
       <c r="P9" t="n">
-        <v>124292.30000000018</v>
+        <v>175547.89999999967</v>
       </c>
     </row>
     <row r="10">
@@ -2057,49 +2042,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>5136.0</v>
+        <v>4207.0</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0</v>
+        <v>36.0</v>
       </c>
       <c r="D10" t="n">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="E10" t="n">
-        <v>17.0</v>
+        <v>36.0</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.65923</v>
+        <v>48.57334</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.64962</v>
+        <v>-117.96965</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>539782.3000000002</v>
+        <v>512579.7499999999</v>
       </c>
       <c r="P10" t="n">
-        <v>72515.30000000009</v>
+        <v>173067.4000000002</v>
       </c>
     </row>
     <row r="11">
@@ -2107,49 +2092,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>19324.0</v>
+        <v>9214.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="D11" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="E11" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="n">
         <v>4.0</v>
       </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.0</v>
-      </c>
       <c r="K11" t="n">
-        <v>47.82645</v>
+        <v>47.98284</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.22993</v>
+        <v>-118.56801</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>490455.95000000036</v>
+        <v>461719.1499999999</v>
       </c>
       <c r="P11" t="n">
-        <v>90909.50000000013</v>
+        <v>108112.40000000033</v>
       </c>
     </row>
   </sheetData>
@@ -2218,49 +2203,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>487.0</v>
+        <v>845.0</v>
       </c>
       <c r="C2" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="D2" t="n">
-        <v>37.0</v>
+        <v>22.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>24.0</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.64225</v>
+        <v>48.17713</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.12162</v>
+        <v>-120.0331</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>499662.30000000057</v>
+        <v>337186.4999999996</v>
       </c>
       <c r="P2" t="n">
-        <v>180647.49999999968</v>
+        <v>129484.2999999998</v>
       </c>
     </row>
     <row r="3">
@@ -2268,49 +2253,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>6307.0</v>
+        <v>12854.0</v>
       </c>
       <c r="C3" t="n">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
       <c r="D3" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E3" t="n">
-        <v>32.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>6.0</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.70286</v>
+        <v>48.8188</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.64953</v>
+        <v>-118.16472</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>539789.9500000001</v>
+        <v>495998.79999999976</v>
       </c>
       <c r="P3" t="n">
-        <v>77314.60000000012</v>
+        <v>200068.00000000035</v>
       </c>
     </row>
     <row r="4">
@@ -2318,49 +2303,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>20660.0</v>
+        <v>17642.0</v>
       </c>
       <c r="C4" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>7.0</v>
+        <v>1.9</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.36069</v>
+        <v>48.99725</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.88347</v>
+        <v>-118.78026</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>519905.04999999976</v>
+        <v>443677.90000000014</v>
       </c>
       <c r="P4" t="n">
-        <v>149675.8999999998</v>
+        <v>219697.50000000012</v>
       </c>
     </row>
     <row r="5">
@@ -2368,49 +2353,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>17091.0</v>
+        <v>20413.0</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0</v>
+        <v>36.0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.0</v>
+        <v>21.0</v>
       </c>
       <c r="E5" t="n">
-        <v>35.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.61496</v>
+        <v>48.64795</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.08664</v>
+        <v>-120.20044</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="n">
-        <v>587635.5999999997</v>
+        <v>322962.6</v>
       </c>
       <c r="P5" t="n">
-        <v>67645.60000000038</v>
+        <v>181274.50000000017</v>
       </c>
     </row>
     <row r="6">
@@ -2418,49 +2403,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>15085.0</v>
+        <v>9313.0</v>
       </c>
       <c r="C6" t="n">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="D6" t="n">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>1.32</v>
+        <v>23.0</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.53061</v>
+        <v>47.86338</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.79627</v>
+        <v>-117.85051</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" t="n">
-        <v>357317.0499999994</v>
+        <v>522706.65</v>
       </c>
       <c r="P6" t="n">
-        <v>168367.10000000033</v>
+        <v>94971.79999999993</v>
       </c>
     </row>
     <row r="7">
@@ -2468,49 +2453,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>9290.0</v>
+        <v>14476.0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0</v>
+        <v>24.0</v>
       </c>
       <c r="E7" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.37114</v>
+        <v>48.17247</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.09298</v>
+        <v>-119.77398</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>502096.70000000024</v>
+        <v>359211.7000000005</v>
       </c>
       <c r="P7" t="n">
-        <v>150825.39999999967</v>
+        <v>128971.69999999968</v>
       </c>
     </row>
     <row r="8">
@@ -2518,49 +2503,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>7988.0</v>
+        <v>11081.0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0</v>
+        <v>27.0</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.76037</v>
+        <v>47.85548</v>
       </c>
       <c r="L8" t="n">
-        <v>-118.59027</v>
+        <v>-117.77499</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>459827.0499999997</v>
+        <v>529125.8499999997</v>
       </c>
       <c r="P8" t="n">
-        <v>193640.7000000002</v>
+        <v>94102.8</v>
       </c>
     </row>
     <row r="9">
@@ -2568,49 +2553,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>3696.0</v>
+        <v>9677.0</v>
       </c>
       <c r="C9" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="D9" t="n">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.59589</v>
+        <v>48.82235</v>
       </c>
       <c r="L9" t="n">
-        <v>-119.50797</v>
+        <v>-118.15925</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>381822.55</v>
+        <v>496463.75</v>
       </c>
       <c r="P9" t="n">
-        <v>175547.89999999967</v>
+        <v>200458.50000000003</v>
       </c>
     </row>
     <row r="10">
@@ -2618,49 +2603,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>2091.0</v>
+        <v>16483.0</v>
       </c>
       <c r="C10" t="n">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="D10" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="E10" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="H10" t="n">
-        <v>6.0</v>
+        <v>27.0</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.54469</v>
+        <v>47.57442</v>
       </c>
       <c r="L10" t="n">
-        <v>-118.16517</v>
+        <v>-117.2196</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>495960.5499999997</v>
+        <v>576334.0</v>
       </c>
       <c r="P10" t="n">
-        <v>169915.9000000003</v>
+        <v>63186.20000000038</v>
       </c>
     </row>
     <row r="11">
@@ -2668,49 +2653,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>7856.0</v>
+        <v>9239.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="D11" t="n">
         <v>44.0</v>
       </c>
       <c r="E11" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.85154</v>
+        <v>48.25389</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.23195</v>
+        <v>-117.28711</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>575284.2500000002</v>
+        <v>570595.6500000001</v>
       </c>
       <c r="P11" t="n">
-        <v>93669.4</v>
+        <v>137927.89999999982</v>
       </c>
     </row>
   </sheetData>
@@ -2779,49 +2764,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>7181.0</v>
+        <v>855.0</v>
       </c>
       <c r="C2" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="D2" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.89431</v>
+        <v>48.4038</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.66196</v>
+        <v>-117.92016</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>538733.4000000006</v>
+        <v>516786.4000000004</v>
       </c>
       <c r="P2" t="n">
-        <v>98374.0999999997</v>
+        <v>154417.99999999965</v>
       </c>
     </row>
     <row r="3">
@@ -2829,49 +2814,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>9290.0</v>
+        <v>3953.0</v>
       </c>
       <c r="C3" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D3" t="n">
-        <v>40.0</v>
+        <v>28.0</v>
       </c>
       <c r="E3" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="H3" t="n">
-        <v>6.0</v>
+        <v>14.3</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.37114</v>
+        <v>48.72508</v>
       </c>
       <c r="L3" t="n">
-        <v>-118.09298</v>
+        <v>-119.32762</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>502096.70000000024</v>
+        <v>397152.30000000034</v>
       </c>
       <c r="P3" t="n">
-        <v>150825.39999999967</v>
+        <v>189758.7999999998</v>
       </c>
     </row>
     <row r="4">
@@ -2879,49 +2864,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>2918.0</v>
+        <v>6058.0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" t="n">
-        <v>9.4</v>
+        <v>21.0</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.61411</v>
+        <v>48.89064</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.50848</v>
+        <v>-117.79072</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>381779.1999999995</v>
+        <v>527788.8000000006</v>
       </c>
       <c r="P4" t="n">
-        <v>177552.09999999963</v>
+        <v>207970.39999999973</v>
       </c>
     </row>
     <row r="5">
@@ -2929,49 +2914,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>15994.0</v>
+        <v>9970.0</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="E5" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>22.0</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.01223</v>
+        <v>47.46573</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.37942</v>
+        <v>-117.63689</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="n">
-        <v>562749.3000000003</v>
+        <v>540864.3500000006</v>
       </c>
       <c r="P5" t="n">
-        <v>111345.30000000026</v>
+        <v>51230.30000000007</v>
       </c>
     </row>
     <row r="6">
@@ -2979,49 +2964,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>17023.0</v>
+        <v>12325.0</v>
       </c>
       <c r="C6" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D6" t="n">
         <v>39.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>37.0</v>
-      </c>
       <c r="E6" t="n">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>87.0</v>
+        <v>44.0</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.88776</v>
+        <v>47.79042</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.85762</v>
+        <v>-117.84466</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" t="n">
-        <v>522102.3000000002</v>
+        <v>523203.8999999996</v>
       </c>
       <c r="P6" t="n">
-        <v>207653.6</v>
+        <v>86946.19999999972</v>
       </c>
     </row>
     <row r="7">
@@ -3029,49 +3014,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>1354.0</v>
+        <v>6850.0</v>
       </c>
       <c r="C7" t="n">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="D7" t="n">
-        <v>42.0</v>
+        <v>31.0</v>
       </c>
       <c r="E7" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>1.4</v>
+        <v>48.4</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.63745</v>
+        <v>48.79295</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.47314</v>
+        <v>-118.845</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>554783.1</v>
+        <v>438175.0000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>70119.50000000013</v>
+        <v>197224.49999999974</v>
       </c>
     </row>
     <row r="8">
@@ -3079,49 +3064,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>20094.0</v>
+        <v>5207.0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="E8" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>1.75</v>
+        <v>18.5</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.77674</v>
+        <v>48.08448</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.74761</v>
+        <v>-118.33658</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>531453.1500000005</v>
+        <v>481390.7000000002</v>
       </c>
       <c r="P8" t="n">
-        <v>195441.39999999964</v>
+        <v>119292.79999999992</v>
       </c>
     </row>
     <row r="9">
@@ -3129,49 +3114,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>20491.0</v>
+        <v>303.0</v>
       </c>
       <c r="C9" t="n">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="D9" t="n">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
       <c r="E9" t="n">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.79424</v>
+        <v>47.62298</v>
       </c>
       <c r="L9" t="n">
-        <v>-119.48676</v>
+        <v>-117.50498</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>383625.3999999997</v>
+        <v>552076.6999999997</v>
       </c>
       <c r="P9" t="n">
-        <v>197366.40000000023</v>
+        <v>68527.79999999981</v>
       </c>
     </row>
     <row r="10">
@@ -3179,49 +3164,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>9945.0</v>
+        <v>4620.0</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E10" t="n">
-        <v>27.0</v>
+        <v>11.0</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H10" t="n">
-        <v>8.5</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.925999</v>
+        <v>47.94142</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.78911</v>
+        <v>-117.33981</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>527925.6500000005</v>
+        <v>566116.15</v>
       </c>
       <c r="P10" t="n">
-        <v>101859.88999999971</v>
+        <v>103556.20000000008</v>
       </c>
     </row>
     <row r="11">
@@ -3229,49 +3214,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>15383.0</v>
+        <v>7281.0</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="E11" t="n">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.39</v>
+        <v>4.88</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.18471</v>
+        <v>47.82327</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.71793</v>
+        <v>-117.8506</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>533975.9500000004</v>
+        <v>522699.0</v>
       </c>
       <c r="P11" t="n">
-        <v>130318.10000000028</v>
+        <v>90559.7000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3340,49 +3325,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>552.0</v>
+        <v>16510.0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
       <c r="D2" t="n">
         <v>33.0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.71329</v>
+        <v>48.01572</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.65651</v>
+        <v>-118.66529</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>454196.65000000026</v>
+        <v>453450.3500000001</v>
       </c>
       <c r="P2" t="n">
-        <v>188461.90000000008</v>
+        <v>111729.20000000019</v>
       </c>
     </row>
     <row r="3">
@@ -3390,49 +3375,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>12915.0</v>
+        <v>17638.0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="H3" t="n">
-        <v>5.0</v>
+        <v>2.5</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.55294</v>
+        <v>48.91044</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.82724</v>
+        <v>-118.20304</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>524684.5999999997</v>
+        <v>492741.59999999986</v>
       </c>
       <c r="P3" t="n">
-        <v>170823.39999999994</v>
+        <v>210148.40000000014</v>
       </c>
     </row>
     <row r="4">
@@ -3440,49 +3425,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>4351.0</v>
+        <v>17491.0</v>
       </c>
       <c r="C4" t="n">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0</v>
+        <v>40.0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>9.0</v>
+        <v>10.3</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.71417</v>
+        <v>47.29124</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.26753</v>
+        <v>-117.78732</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>402259.95000000054</v>
+        <v>528077.8000000005</v>
       </c>
       <c r="P4" t="n">
-        <v>188558.7000000003</v>
+        <v>32036.400000000212</v>
       </c>
     </row>
     <row r="5">
@@ -3490,49 +3475,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>14458.0</v>
+        <v>14125.0</v>
       </c>
       <c r="C5" t="n">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.59775</v>
+        <v>47.69164</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.10746</v>
+        <v>-117.34395</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="n">
-        <v>500865.89999999973</v>
+        <v>565764.2499999994</v>
       </c>
       <c r="P5" t="n">
-        <v>175752.49999999977</v>
+        <v>76080.39999999995</v>
       </c>
     </row>
     <row r="6">
@@ -3540,49 +3525,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>19075.0</v>
+        <v>9640.0</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0</v>
+        <v>25.0</v>
       </c>
       <c r="E6" t="n">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="H6" t="n">
-        <v>9.8</v>
+        <v>18.64</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.16508</v>
+        <v>48.82271</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.28813</v>
+        <v>-119.63971</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" t="n">
-        <v>570508.9500000004</v>
+        <v>370624.65000000055</v>
       </c>
       <c r="P6" t="n">
-        <v>128158.80000000035</v>
+        <v>200498.1000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3590,49 +3575,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>8689.0</v>
+        <v>6850.0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="D7" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>48.4</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.65277</v>
+        <v>48.79295</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.09629</v>
+        <v>-118.845</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>416815.3500000003</v>
+        <v>438175.0000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>181804.69999999963</v>
+        <v>197224.49999999974</v>
       </c>
     </row>
     <row r="8">
@@ -3640,49 +3625,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>20686.0</v>
+        <v>9888.0</v>
       </c>
       <c r="C8" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="H8" t="n">
-        <v>1.0</v>
+        <v>1.4</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.32389</v>
+        <v>48.01048</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.63062</v>
+        <v>-117.73845</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>541397.3000000005</v>
+        <v>532231.75</v>
       </c>
       <c r="P8" t="n">
-        <v>35627.899999999856</v>
+        <v>111152.80000000013</v>
       </c>
     </row>
     <row r="9">
@@ -3690,49 +3675,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>11996.0</v>
+        <v>12530.0</v>
       </c>
       <c r="C9" t="n">
-        <v>21.0</v>
+        <v>38.0</v>
       </c>
       <c r="D9" t="n">
-        <v>45.0</v>
+        <v>26.0</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8</v>
+        <v>9.9</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.26502</v>
+        <v>48.8126</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.10725</v>
+        <v>-119.58009</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>585883.7500000006</v>
+        <v>375692.35000000015</v>
       </c>
       <c r="P9" t="n">
-        <v>29152.19999999998</v>
+        <v>199386.00000000038</v>
       </c>
     </row>
     <row r="10">
@@ -3740,49 +3725,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>294.0</v>
+        <v>19438.0</v>
       </c>
       <c r="C10" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="D10" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.88401</v>
+        <v>48.51987</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.34985</v>
+        <v>-117.68975</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>565262.7499999997</v>
+        <v>536371.2499999997</v>
       </c>
       <c r="P10" t="n">
-        <v>97241.10000000038</v>
+        <v>167185.69999999972</v>
       </c>
     </row>
     <row r="11">
@@ -3790,49 +3775,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>14476.0</v>
+        <v>12144.0</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.0</v>
+        <v>3.0</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
-        <v>30.0</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.17247</v>
+        <v>48.03409</v>
       </c>
       <c r="L11" t="n">
-        <v>-119.77398</v>
+        <v>-117.36332</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>359211.7000000005</v>
+        <v>564117.7999999998</v>
       </c>
       <c r="P11" t="n">
-        <v>128971.69999999968</v>
+        <v>113749.89999999989</v>
       </c>
     </row>
   </sheetData>
@@ -3901,49 +3886,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>19520.0</v>
+        <v>15715.0</v>
       </c>
       <c r="C2" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="D2" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.0</v>
+        <v>6.0</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.61563</v>
+        <v>47.86225</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.51015</v>
+        <v>-117.67768</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>551637.2500000003</v>
+        <v>537397.2000000004</v>
       </c>
       <c r="P2" t="n">
-        <v>67719.30000000034</v>
+        <v>94847.50000000033</v>
       </c>
     </row>
     <row r="3">
@@ -3951,49 +3936,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>12530.0</v>
+        <v>1957.0</v>
       </c>
       <c r="C3" t="n">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="E3" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>9.9</v>
+        <v>1.6</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.8126</v>
+        <v>47.58205</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.58009</v>
+        <v>-117.41982</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>375692.35000000015</v>
+        <v>559315.2999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>199386.00000000038</v>
+        <v>64025.50000000026</v>
       </c>
     </row>
     <row r="4">
@@ -4001,49 +3986,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>18654.0</v>
+        <v>12013.0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0</v>
+        <v>29.0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.0</v>
+        <v>32.0</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.40049</v>
+        <v>47.96508</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.83639</v>
+        <v>-117.39563</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>523906.8500000005</v>
+        <v>561371.4500000003</v>
       </c>
       <c r="P4" t="n">
-        <v>44053.899999999754</v>
+        <v>106158.80000000005</v>
       </c>
     </row>
     <row r="5">
@@ -4051,49 +4036,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>13682.0</v>
+        <v>6678.0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E5" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>17.0</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.71395</v>
+        <v>47.88028</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.70888</v>
+        <v>-117.68323</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="n">
-        <v>534745.2000000005</v>
+        <v>536925.4500000004</v>
       </c>
       <c r="P5" t="n">
-        <v>78534.49999999967</v>
+        <v>96830.7999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4101,49 +4086,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>20189.0</v>
+        <v>15994.0</v>
       </c>
       <c r="C6" t="n">
-        <v>36.0</v>
+        <v>29.0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="E6" t="n">
-        <v>29.0</v>
+        <v>16.0</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.59262</v>
+        <v>48.01223</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.93376</v>
+        <v>-117.37942</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" t="n">
-        <v>515630.39999999944</v>
+        <v>562749.3000000003</v>
       </c>
       <c r="P6" t="n">
-        <v>175188.19999999963</v>
+        <v>111345.30000000026</v>
       </c>
     </row>
     <row r="7">
@@ -4151,49 +4136,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>18372.0</v>
+        <v>11758.0</v>
       </c>
       <c r="C7" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.51363</v>
+        <v>47.93049</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.80883</v>
+        <v>-119.06288</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>526249.45</v>
+        <v>419655.19999999943</v>
       </c>
       <c r="P7" t="n">
-        <v>56499.29999999991</v>
+        <v>102353.89999999988</v>
       </c>
     </row>
     <row r="8">
@@ -4201,49 +4186,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>7751.0</v>
+        <v>400.0</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="D8" t="n">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="E8" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>2.0</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.59316</v>
+        <v>48.25798</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.40356</v>
+        <v>-118.04835</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>560697.4000000001</v>
+        <v>505890.25000000006</v>
       </c>
       <c r="P8" t="n">
-        <v>65247.59999999972</v>
+        <v>138377.80000000037</v>
       </c>
     </row>
     <row r="9">
@@ -4251,49 +4236,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>3849.0</v>
+        <v>9959.0</v>
       </c>
       <c r="C9" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
       <c r="D9" t="n">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.0</v>
+        <v>27.0</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H9" t="n">
-        <v>6.0</v>
+        <v>6.1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.34653</v>
+        <v>48.33632</v>
       </c>
       <c r="L9" t="n">
-        <v>-118.7142</v>
+        <v>-117.36192</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>449292.99999999953</v>
+        <v>564236.8000000002</v>
       </c>
       <c r="P9" t="n">
-        <v>38118.30000000015</v>
+        <v>146995.20000000007</v>
       </c>
     </row>
     <row r="10">
@@ -4301,49 +4286,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>11383.0</v>
+        <v>7210.0</v>
       </c>
       <c r="C10" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="D10" t="n">
         <v>40.0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.72626</v>
+        <v>48.57088</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.79418</v>
+        <v>-117.80421</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>527494.7000000002</v>
+        <v>526642.1500000003</v>
       </c>
       <c r="P10" t="n">
-        <v>189888.60000000038</v>
+        <v>172796.80000000028</v>
       </c>
     </row>
     <row r="11">
@@ -4351,49 +4336,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>9603.0</v>
+        <v>18945.0</v>
       </c>
       <c r="C11" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="D11" t="n">
-        <v>25.0</v>
+        <v>41.0</v>
       </c>
       <c r="E11" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.35316</v>
+        <v>48.54506</v>
       </c>
       <c r="L11" t="n">
-        <v>-119.70386</v>
+        <v>-117.60283</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>365171.8999999995</v>
+        <v>543759.4500000002</v>
       </c>
       <c r="P11" t="n">
-        <v>148847.6000000003</v>
+        <v>169956.59999999995</v>
       </c>
     </row>
   </sheetData>
@@ -4462,49 +4447,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>14306.0</v>
+        <v>471.0</v>
       </c>
       <c r="C2" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="D2" t="n">
-        <v>35.0</v>
+        <v>20.0</v>
       </c>
       <c r="E2" t="n">
-        <v>12.0</v>
+        <v>41.0</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.03393</v>
+        <v>48.38067</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.3586</v>
+        <v>-120.29199</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>479519.00000000035</v>
+        <v>315180.85000000015</v>
       </c>
       <c r="P2" t="n">
-        <v>113732.29999999978</v>
+        <v>151873.70000000022</v>
       </c>
     </row>
     <row r="3">
@@ -4512,49 +4497,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>9479.0</v>
+        <v>15383.0</v>
       </c>
       <c r="C3" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>8.07</v>
+        <v>3.39</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.70328</v>
+        <v>48.18471</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.212</v>
+        <v>-117.71793</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>406979.9999999997</v>
+        <v>533975.9500000004</v>
       </c>
       <c r="P3" t="n">
-        <v>187360.79999999993</v>
+        <v>130318.10000000028</v>
       </c>
     </row>
     <row r="4">
@@ -4562,10 +4547,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>19935.0</v>
+        <v>304.0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="D4" t="n">
         <v>36.0</v>
@@ -4574,37 +4559,37 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.89894</v>
+        <v>48.589472</v>
       </c>
       <c r="L4" t="n">
-        <v>-118.29493</v>
+        <v>-118.315115</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>484930.95000000054</v>
+        <v>483215.2249999995</v>
       </c>
       <c r="P4" t="n">
-        <v>98883.40000000034</v>
+        <v>174841.92000000007</v>
       </c>
     </row>
     <row r="5">
@@ -4612,49 +4597,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>9927.0</v>
+        <v>9964.0</v>
       </c>
       <c r="C5" t="n">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
       <c r="D5" t="n">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="E5" t="n">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.42972</v>
+        <v>47.97525</v>
       </c>
       <c r="L5" t="n">
-        <v>-119.75804</v>
+        <v>-117.76098</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="n">
-        <v>360566.6000000005</v>
+        <v>530316.6999999997</v>
       </c>
       <c r="P5" t="n">
-        <v>157269.20000000036</v>
+        <v>107277.50000000029</v>
       </c>
     </row>
     <row r="6">
@@ -4662,49 +4647,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>18646.0</v>
+        <v>14936.0</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0</v>
+        <v>36.0</v>
       </c>
       <c r="E6" t="n">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="H6" t="n">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.1832</v>
+        <v>47.63001</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.30352</v>
+        <v>-118.2725</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" t="n">
-        <v>569200.7999999995</v>
+        <v>486837.5000000005</v>
       </c>
       <c r="P6" t="n">
-        <v>130151.99999999993</v>
+        <v>69301.09999999985</v>
       </c>
     </row>
     <row r="7">
@@ -4712,49 +4697,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>15997.0</v>
+        <v>17661.0</v>
       </c>
       <c r="C7" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.0</v>
+        <v>33.0</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>27.0</v>
+        <v>1.8</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.92335</v>
+        <v>47.71015</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.31831</v>
+        <v>-117.63359</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>567943.6500000003</v>
+        <v>541144.8500000002</v>
       </c>
       <c r="P7" t="n">
-        <v>101568.49999999991</v>
+        <v>78116.49999999985</v>
       </c>
     </row>
     <row r="8">
@@ -4762,25 +4747,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>16823.0</v>
+        <v>7413.0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E8" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="s">
         <v>108</v>
@@ -4789,22 +4774,22 @@
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.79825</v>
+        <v>47.57831</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.7093</v>
+        <v>-117.65851</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>534709.5000000001</v>
+        <v>539026.6499999994</v>
       </c>
       <c r="P8" t="n">
-        <v>197807.50000000032</v>
+        <v>63614.10000000021</v>
       </c>
     </row>
     <row r="9">
@@ -4812,49 +4797,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>14766.0</v>
+        <v>8757.0</v>
       </c>
       <c r="C9" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="D9" t="n">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="E9" t="n">
-        <v>31.0</v>
+        <v>8.0</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>10.0</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.57277</v>
+        <v>48.36729</v>
       </c>
       <c r="L9" t="n">
-        <v>-118.07024</v>
+        <v>-119.73101</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>504029.60000000015</v>
+        <v>362864.1500000002</v>
       </c>
       <c r="P9" t="n">
-        <v>173004.69999999984</v>
+        <v>150401.89999999967</v>
       </c>
     </row>
     <row r="10">
@@ -4862,49 +4847,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>11807.0</v>
+        <v>11509.0</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.85084</v>
+        <v>47.67758</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.52713</v>
+        <v>-117.69815</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>550193.9500000001</v>
+        <v>535657.2500000001</v>
       </c>
       <c r="P10" t="n">
-        <v>93592.39999999979</v>
+        <v>74533.79999999989</v>
       </c>
     </row>
     <row r="11">
@@ -4912,49 +4897,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>15542.0</v>
+        <v>1467.0</v>
       </c>
       <c r="C11" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="D11" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="H11" t="n">
-        <v>11.5</v>
+        <v>1.4</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.37192</v>
+        <v>47.75649</v>
       </c>
       <c r="L11" t="n">
-        <v>-119.62225</v>
+        <v>-117.39253</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>372108.7500000005</v>
+        <v>561634.9500000005</v>
       </c>
       <c r="P11" t="n">
-        <v>150911.20000000033</v>
+        <v>83213.89999999994</v>
       </c>
     </row>
   </sheetData>
@@ -5023,49 +5008,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>14889.0</v>
+        <v>7621.0</v>
       </c>
       <c r="C2" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="D2" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
       <c r="F2" t="s">
         <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>7.0</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.77915</v>
+        <v>48.06325</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.71491</v>
+        <v>-117.9307</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>534232.6499999997</v>
+        <v>515890.4999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>85706.50000000015</v>
+        <v>116957.4999999996</v>
       </c>
     </row>
     <row r="3">
@@ -5073,49 +5058,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>471.0</v>
+        <v>6058.0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="E3" t="n">
-        <v>41.0</v>
+        <v>17.0</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.38067</v>
+        <v>48.89064</v>
       </c>
       <c r="L3" t="n">
-        <v>-120.29199</v>
+        <v>-117.79072</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>315180.85000000015</v>
+        <v>527788.8000000006</v>
       </c>
       <c r="P3" t="n">
-        <v>151873.70000000022</v>
+        <v>207970.39999999973</v>
       </c>
     </row>
     <row r="4">
@@ -5123,49 +5108,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>18486.0</v>
+        <v>5258.0</v>
       </c>
       <c r="C4" t="n">
-        <v>31.0</v>
+        <v>39.0</v>
       </c>
       <c r="D4" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.1596</v>
+        <v>48.83394</v>
       </c>
       <c r="L4" t="n">
-        <v>-118.16524</v>
+        <v>-118.21431</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>495954.60000000027</v>
+        <v>491783.6500000002</v>
       </c>
       <c r="P4" t="n">
-        <v>127555.99999999972</v>
+        <v>201733.39999999982</v>
       </c>
     </row>
     <row r="5">
@@ -5173,49 +5158,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>11710.0</v>
+        <v>10322.0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.0</v>
+        <v>24.0</v>
       </c>
       <c r="D5" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
       <c r="E5" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.87973</v>
+        <v>47.57833</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.55272</v>
+        <v>-117.7876</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="n">
-        <v>463018.8000000005</v>
+        <v>528054.0000000002</v>
       </c>
       <c r="P5" t="n">
-        <v>206770.30000000022</v>
+        <v>63616.30000000013</v>
       </c>
     </row>
     <row r="6">
@@ -5223,49 +5208,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>15990.0</v>
+        <v>19531.0</v>
       </c>
       <c r="C6" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>23.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.0</v>
-      </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.51294</v>
+        <v>48.86248</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.14023</v>
+        <v>-117.94543</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" t="n">
-        <v>583080.4499999998</v>
+        <v>514638.44999999984</v>
       </c>
       <c r="P6" t="n">
-        <v>56423.400000000045</v>
+        <v>204872.79999999978</v>
       </c>
     </row>
     <row r="7">
@@ -5273,49 +5258,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>20189.0</v>
+        <v>5083.0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="D7" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="E7" t="n">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7</v>
+        <v>5.0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.59262</v>
+        <v>48.47639</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.93376</v>
+        <v>-118.16341</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>515630.39999999944</v>
+        <v>496110.1500000001</v>
       </c>
       <c r="P7" t="n">
-        <v>175188.19999999963</v>
+        <v>162402.90000000023</v>
       </c>
     </row>
     <row r="8">
@@ -5323,49 +5308,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>10678.0</v>
+        <v>1309.0</v>
       </c>
       <c r="C8" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0</v>
+        <v>42.0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.00529</v>
+        <v>47.48369</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.94029</v>
+        <v>-117.55844</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>345075.3499999996</v>
+        <v>547532.5999999996</v>
       </c>
       <c r="P8" t="n">
-        <v>110581.90000000024</v>
+        <v>53205.900000000314</v>
       </c>
     </row>
     <row r="9">
@@ -5373,49 +5358,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>7621.0</v>
+        <v>2366.0</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0</v>
+        <v>44.0</v>
       </c>
       <c r="E9" t="n">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>10.3</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.06325</v>
+        <v>48.20135</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.9307</v>
+        <v>-117.29883</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>515890.4999999999</v>
+        <v>569599.4500000004</v>
       </c>
       <c r="P9" t="n">
-        <v>116957.4999999996</v>
+        <v>132148.49999999977</v>
       </c>
     </row>
     <row r="10">
@@ -5423,49 +5408,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>16276.0</v>
+        <v>7158.0</v>
       </c>
       <c r="C10" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="D10" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>25.0</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>15.39</v>
+        <v>7.6</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.3074</v>
+        <v>48.67427</v>
       </c>
       <c r="L10" t="n">
-        <v>-120.04869</v>
+        <v>-119.37133</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>335861.35000000056</v>
+        <v>393436.94999999995</v>
       </c>
       <c r="P10" t="n">
-        <v>143814.00000000015</v>
+        <v>184169.69999999998</v>
       </c>
     </row>
     <row r="11">
@@ -5473,49 +5458,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>13422.0</v>
+        <v>12854.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
-        <v>45.0</v>
+        <v>6.0</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.8733</v>
+        <v>48.8188</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.7476</v>
+        <v>-118.16472</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>531453.9999999995</v>
+        <v>495998.79999999976</v>
       </c>
       <c r="P11" t="n">
-        <v>96063.00000000004</v>
+        <v>200068.00000000035</v>
       </c>
     </row>
   </sheetData>
@@ -5584,7 +5569,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>14145.0</v>
+        <v>17090.0</v>
       </c>
       <c r="C2" t="n">
         <v>36.0</v>
@@ -5593,40 +5578,40 @@
         <v>37.0</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.61696</v>
+        <v>48.59409</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.13797</v>
+        <v>-118.10743</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O2" t="n">
-        <v>498272.55000000034</v>
+        <v>500868.45000000054</v>
       </c>
       <c r="P2" t="n">
-        <v>177865.59999999986</v>
+        <v>175349.90000000014</v>
       </c>
     </row>
     <row r="3">
@@ -5634,49 +5619,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>8724.0</v>
+        <v>8371.0</v>
       </c>
       <c r="C3" t="n">
-        <v>39.0</v>
+        <v>27.0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="I3" t="s">
         <v>120</v>
       </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.8446</v>
+        <v>47.83377</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.65053</v>
+        <v>-117.80681</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>369704.9499999997</v>
+        <v>526421.1500000001</v>
       </c>
       <c r="P3" t="n">
-        <v>202905.99999999997</v>
+        <v>91714.70000000014</v>
       </c>
     </row>
     <row r="4">
@@ -5684,49 +5669,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>4886.0</v>
+        <v>20531.0</v>
       </c>
       <c r="C4" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="D4" t="n">
-        <v>36.0</v>
+        <v>44.0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H4" t="n">
-        <v>26.1</v>
+        <v>7.0</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.37626</v>
+        <v>47.73488</v>
       </c>
       <c r="L4" t="n">
-        <v>-118.21931</v>
+        <v>-117.24284</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
-        <v>491358.6500000006</v>
+        <v>574358.5999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>151388.6000000002</v>
+        <v>80836.79999999965</v>
       </c>
     </row>
     <row r="5">
@@ -5734,49 +5719,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>18130.0</v>
+        <v>12587.0</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0</v>
+        <v>36.0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
       <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I5" t="s">
         <v>121</v>
       </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.45145</v>
+        <v>48.61794</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.77119</v>
+        <v>-117.83814</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" t="n">
-        <v>529448.8499999996</v>
+        <v>523758.1000000004</v>
       </c>
       <c r="P5" t="n">
-        <v>49659.50000000014</v>
+        <v>177973.3999999997</v>
       </c>
     </row>
     <row r="6">
@@ -5784,49 +5769,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>17793.0</v>
+        <v>11996.0</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="D6" t="n">
-        <v>24.0</v>
+        <v>45.0</v>
       </c>
       <c r="E6" t="n">
-        <v>22.0</v>
+        <v>34.0</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>4.0</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.1725</v>
+        <v>47.26502</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.80114</v>
+        <v>-117.10725</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" t="n">
-        <v>356903.0999999997</v>
+        <v>585883.7500000006</v>
       </c>
       <c r="P6" t="n">
-        <v>128974.99999999994</v>
+        <v>29152.19999999998</v>
       </c>
     </row>
     <row r="7">
@@ -5834,49 +5819,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>3052.0</v>
+        <v>14678.0</v>
       </c>
       <c r="C7" t="n">
         <v>27.0</v>
       </c>
       <c r="D7" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="E7" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>7.6</v>
+        <v>1.8</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.81427</v>
+        <v>47.78994</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.54246</v>
+        <v>-118.0797</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O7" t="n">
-        <v>548890.8999999996</v>
+        <v>503225.49999999977</v>
       </c>
       <c r="P7" t="n">
-        <v>89569.70000000006</v>
+        <v>86893.40000000015</v>
       </c>
     </row>
     <row r="8">
@@ -5884,49 +5869,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>16693.0</v>
+        <v>20189.0</v>
       </c>
       <c r="C8" t="n">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="E8" t="n">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>36.25</v>
+        <v>1.7</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.70285</v>
+        <v>48.59262</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.58543</v>
+        <v>-117.93376</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" t="n">
-        <v>545238.4499999998</v>
+        <v>515630.39999999944</v>
       </c>
       <c r="P8" t="n">
-        <v>77313.49999999978</v>
+        <v>175188.19999999963</v>
       </c>
     </row>
     <row r="9">
@@ -5934,49 +5919,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>5740.0</v>
+        <v>16510.0</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0</v>
+        <v>33.0</v>
       </c>
       <c r="E9" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H9" t="n">
-        <v>3.0</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.67732</v>
+        <v>48.01572</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.57451</v>
+        <v>-118.66529</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>546166.6499999997</v>
+        <v>453450.3500000001</v>
       </c>
       <c r="P9" t="n">
-        <v>74505.20000000019</v>
+        <v>111729.20000000019</v>
       </c>
     </row>
     <row r="10">
@@ -5984,49 +5969,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>5267.0</v>
+        <v>18181.0</v>
       </c>
       <c r="C10" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="D10" t="n">
-        <v>22.0</v>
+        <v>40.0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.33207</v>
+        <v>47.72877</v>
       </c>
       <c r="L10" t="n">
-        <v>-120.03296</v>
+        <v>-117.8172</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O10" t="n">
-        <v>337198.3999999998</v>
+        <v>525538.0</v>
       </c>
       <c r="P10" t="n">
-        <v>146527.7000000002</v>
+        <v>80164.69999999969</v>
       </c>
     </row>
     <row r="11">
@@ -6034,49 +6019,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>17450.0</v>
+        <v>15382.0</v>
       </c>
       <c r="C11" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="D11" t="n">
         <v>40.0</v>
       </c>
       <c r="E11" t="n">
-        <v>28.0</v>
+        <v>14.0</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>26.0</v>
+        <v>1.3</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.97833</v>
+        <v>48.18471</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.76519</v>
+        <v>-117.71793</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>529958.8499999996</v>
+        <v>533975.9500000004</v>
       </c>
       <c r="P11" t="n">
-        <v>107616.29999999997</v>
+        <v>130318.10000000028</v>
       </c>
     </row>
   </sheetData>
